--- a/myWallet.xlsx
+++ b/myWallet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OOP\Budget-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E337A-F0C3-4DB4-AB5A-46B2FE4DEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCD0E9-444B-4AB9-87A2-D982CF17DCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1752" yWindow="2868" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Burger</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,6 +446,23 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
